--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/murder_contra.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/murder_contra.xlsx
@@ -33,7 +33,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
+    <t>12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0,24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94</t>
   </si>
   <si>
     <t>arg33346</t>
@@ -42,7 +42,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
   </si>
   <si>
     <t>d.</t>
@@ -51,7 +51,7 @@
     <t>arg33259</t>
   </si>
   <si>
-    <t>366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
   </si>
   <si>
     <t>arg33328</t>
@@ -60,7 +60,7 @@
     <t>arg33352</t>
   </si>
   <si>
-    <t>191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0</t>
+    <t>18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89,17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47</t>
   </si>
   <si>
     <t>arg33285</t>
@@ -69,28 +69,28 @@
     <t>arg33358</t>
   </si>
   <si>
-    <t>143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
+    <t>8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>arg33341</t>
   </si>
   <si>
-    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25,19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06</t>
   </si>
   <si>
     <t>arg33279</t>
   </si>
   <si>
-    <t>337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
   </si>
   <si>
     <t>arg33233</t>
   </si>
   <si>
-    <t>276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
+    <t>18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>arg33353</t>
@@ -99,34 +99,34 @@
     <t>arg33262</t>
   </si>
   <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0</t>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29</t>
   </si>
   <si>
     <t>arg33255</t>
   </si>
   <si>
-    <t>247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0,247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4</t>
+    <t>12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25,12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59</t>
   </si>
   <si>
     <t>arg33326</t>
   </si>
   <si>
-    <t>343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0,246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47,12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2</t>
   </si>
   <si>
     <t>arg33288</t>
   </si>
   <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57</t>
   </si>
   <si>
     <t>arg33237</t>
   </si>
   <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78,24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94</t>
   </si>
   <si>
     <t>arg33300</t>
@@ -135,49 +135,49 @@
     <t>arg33252</t>
   </si>
   <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75,7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
   </si>
   <si>
     <t>arg33283</t>
   </si>
   <si>
-    <t>239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
+    <t>15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>arg33243</t>
   </si>
   <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3</t>
+  </si>
+  <si>
+    <t>16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
   </si>
   <si>
     <t>arg33354</t>
   </si>
   <si>
-    <t>350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
+    <t>71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>arg33320</t>
   </si>
   <si>
-    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0</t>
+    <t>12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25,46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25,11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29</t>
   </si>
   <si>
     <t>arg33242</t>
   </si>
   <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0</t>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47</t>
   </si>
   <si>
     <t>arg33257</t>
   </si>
   <si>
-    <t>229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
+    <t>46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
   </si>
   <si>
     <t>.</t>
@@ -189,7 +189,7 @@
     <t>arg33265</t>
   </si>
   <si>
-    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+    <t>22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0,13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77</t>
   </si>
   <si>
     <t>pol</t>
@@ -198,31 +198,31 @@
     <t>ice force. If not, kudos! (I would still divorce the crazy chick though!)</t>
   </si>
   <si>
-    <t>344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
   </si>
   <si>
     <t>arg33343</t>
   </si>
   <si>
-    <t>334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0,229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18,46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
   </si>
   <si>
     <t>arg33296</t>
   </si>
   <si>
-    <t>243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0,426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25,85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
   </si>
   <si>
     <t>arg33225</t>
   </si>
   <si>
-    <t>292,0.5,12.38,0.0,0.05,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>29.0,5.03,0.99,0.61,1.61,0.5,12.38,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.21,0.02,0.02,0.14,0.0,0.0,0.0,0.0,7.81,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
   </si>
   <si>
     <t>y'll</t>
@@ -231,52 +231,52 @@
     <t>turn you in! And if they find out on their own, take them out before they turn you in!" ;)</t>
   </si>
   <si>
-    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
   </si>
   <si>
     <t>arg33270</t>
   </si>
   <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0,343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0,247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4</t>
-  </si>
-  <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0,325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0,143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>292,0.5,12.38,0.0,0.05,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14</t>
+  </si>
+  <si>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08</t>
+  </si>
+  <si>
+    <t>16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25,17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47</t>
+  </si>
+  <si>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36,12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59</t>
+  </si>
+  <si>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25,65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3</t>
+  </si>
+  <si>
+    <t>11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47,8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>29.0,5.03,0.99,0.61,1.61,0.5,12.38,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.21,0.02,0.02,0.14,0.0,0.0,0.0,0.0,7.81,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
   </si>
   <si>
     <t>arg33333</t>
   </si>
   <si>
-    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+    <t>11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43,13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77</t>
   </si>
   <si>
     <t>ily.</t>
@@ -285,25 +285,25 @@
     <t>So ask yourself... would YOU turn in FAMILY?? &lt;br/&gt; If so, join the police force. If not, kudos! (I would still divorce the crazy chick though!)</t>
   </si>
   <si>
-    <t>276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4,195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09,10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63</t>
   </si>
   <si>
     <t>arg33298</t>
   </si>
   <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0,229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81,46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
+  </si>
+  <si>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57,46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
+  </si>
+  <si>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75,10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89,13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77</t>
   </si>
   <si>
     <t>till</t>
@@ -312,10 +312,10 @@
     <t>divorce the crazy chick though!)</t>
   </si>
   <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
-  </si>
-  <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
+  </si>
+  <si>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
   </si>
   <si>
     <t>jus</t>
@@ -327,31 +327,31 @@
     <t>arg33306</t>
   </si>
   <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>292,0.5,12.38,0.0,0.05,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2,193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0,426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0</t>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44</t>
+  </si>
+  <si>
+    <t>29.0,5.03,0.99,0.61,1.61,0.5,12.38,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.21,0.02,0.02,0.14,0.0,0.0,0.0,0.0,7.81,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0,19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44</t>
+  </si>
+  <si>
+    <t>22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08,8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25,12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86,19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44</t>
+  </si>
+  <si>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75,8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81,85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52</t>
   </si>
   <si>
     <t>I b</t>
@@ -360,16 +360,16 @@
     <t>elieve that feeling are stronger than anything and I would not like the fact that he would probably be sentenced to death or spend the rest of his life in prison.</t>
   </si>
   <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4,334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
-  </si>
-  <si>
-    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59,16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
+  </si>
+  <si>
+    <t>22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0,16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44</t>
+  </si>
+  <si>
+    <t>12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
   </si>
   <si>
     <t>this</t>
@@ -378,64 +378,64 @@
     <t>is a toughy.</t>
   </si>
   <si>
-    <t>191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0,229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0,334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
-  </si>
-  <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>292,0.5,12.38,0.0,0.05,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0,350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0,166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
-  </si>
-  <si>
-    <t>215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
-  </si>
-  <si>
-    <t>247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4,446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89,19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06</t>
+  </si>
+  <si>
+    <t>11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29,46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
+  </si>
+  <si>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25,25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57</t>
+  </si>
+  <si>
+    <t>15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08,22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
+  </si>
+  <si>
+    <t>16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25,16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
+  </si>
+  <si>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57,11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>29.0,5.03,0.99,0.61,1.61,0.5,12.38,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.21,0.02,0.02,0.14,0.0,0.0,0.0,0.0,7.81,10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0,12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36,71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92</t>
+  </si>
+  <si>
+    <t>16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25,12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
+  </si>
+  <si>
+    <t>11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14,19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06</t>
+  </si>
+  <si>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
+  </si>
+  <si>
+    <t>12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59,23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81</t>
+  </si>
+  <si>
+    <t>19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
   </si>
   <si>
     <t>et k</t>
@@ -444,10 +444,10 @@
     <t>illed.</t>
   </si>
   <si>
-    <t>166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
+    <t>12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75</t>
   </si>
   <si>
     <t>en i</t>
@@ -456,22 +456,22 @@
     <t>f it makes me his accomplice.</t>
   </si>
   <si>
-    <t>426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0,166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
-  </si>
-  <si>
-    <t>191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
-  </si>
-  <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0,350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52,12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89,16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
+  </si>
+  <si>
+    <t>18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89,19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44</t>
+  </si>
+  <si>
+    <t>71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
+  </si>
+  <si>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76,71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92</t>
   </si>
   <si>
     <t>will</t>
@@ -480,7 +480,7 @@
     <t>not go down with her because most likley I would have a family to take care of and would not leave them for anything.</t>
   </si>
   <si>
-    <t>334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0,397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
+    <t>16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18,17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75</t>
   </si>
   <si>
     <t>mak</t>
@@ -489,13 +489,13 @@
     <t>es me his accomplice.</t>
   </si>
   <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0,143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0,292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76,8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76,11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43</t>
   </si>
   <si>
     <t>tle</t>
@@ -504,10 +504,10 @@
     <t>different, because I wouldnt want him to go nuts and kill me too.</t>
   </si>
   <si>
-    <t>247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0,292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
+    <t>12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
+  </si>
+  <si>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81,11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43</t>
   </si>
   <si>
     <t>wan</t>
@@ -516,7 +516,7 @@
     <t>t him to go nuts and kill me too.</t>
   </si>
   <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0,257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76,7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
   </si>
   <si>
     <t>eser</t>
@@ -525,25 +525,25 @@
     <t>ves to live, you know? ;)</t>
   </si>
   <si>
-    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2,268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+    <t>12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25,24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94</t>
+  </si>
+  <si>
+    <t>18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86,25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57</t>
+  </si>
+  <si>
+    <t>8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89,85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08,46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
+  </si>
+  <si>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3</t>
+  </si>
+  <si>
+    <t>12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2,13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77</t>
   </si>
   <si>
     <t>If</t>
@@ -555,40 +555,40 @@
     <t>arg33302</t>
   </si>
   <si>
-    <t>350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0,166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2,212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4,193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0,341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
+    <t>71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92,22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56</t>
+  </si>
+  <si>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
+  </si>
+  <si>
+    <t>46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81,12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14</t>
+  </si>
+  <si>
+    <t>16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57,7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06,22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56</t>
+  </si>
+  <si>
+    <t>18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86,22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56</t>
+  </si>
+  <si>
+    <t>12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59,19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44</t>
+  </si>
+  <si>
+    <t>13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77,24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94</t>
   </si>
   <si>
     <t>my</t>
@@ -597,34 +597,34 @@
     <t>man that did it and they got all the evidence and witnesses that prove it was him that convicted the crime then yes I would turn him in. If they know its him then its just a matter of time.</t>
   </si>
   <si>
-    <t>246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0,334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
-  </si>
-  <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0,215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
-  </si>
-  <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+    <t>12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2,15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08</t>
+  </si>
+  <si>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44</t>
+  </si>
+  <si>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3,16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
+  </si>
+  <si>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78,11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29</t>
+  </si>
+  <si>
+    <t>85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52,11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14</t>
+  </si>
+  <si>
+    <t>11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
+  </si>
+  <si>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89,23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81</t>
+  </si>
+  <si>
+    <t>22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56,13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77</t>
   </si>
   <si>
     <t>f no</t>
@@ -633,40 +633,40 @@
     <t>t, kudos! (I would still divorce the crazy chick though!)</t>
   </si>
   <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0,165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2,341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0,246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>292,0.5,12.38,0.0,0.05,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0,448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0</t>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36,17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78</t>
+  </si>
+  <si>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86,24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94</t>
+  </si>
+  <si>
+    <t>11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0,7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1,7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89,8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25,12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0,10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43,7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>29.0,5.03,0.99,0.61,1.61,0.5,12.38,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.21,0.02,0.02,0.14,0.0,0.0,0.0,0.0,7.81,11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29</t>
   </si>
   <si>
     <t>her</t>
@@ -675,43 +675,43 @@
     <t>and be with her, no matter what!</t>
   </si>
   <si>
-    <t>221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0,228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0,246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
-  </si>
-  <si>
-    <t>343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0,276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2</t>
-  </si>
-  <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,292,0.5,12.38,0.0,0.05,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0,292,0.5,12.38,0.0,0.05,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
+    <t>16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44,17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75</t>
+  </si>
+  <si>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0,22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56</t>
+  </si>
+  <si>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78,46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
+  </si>
+  <si>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76,22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81,12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43,22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56</t>
+  </si>
+  <si>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
+  </si>
+  <si>
+    <t>17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47,18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86</t>
+  </si>
+  <si>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57,29.0,5.03,0.99,0.61,1.61,0.5,12.38,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.21,0.02,0.02,0.14,0.0,0.0,0.0,0.0,7.81</t>
+  </si>
+  <si>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76,29.0,5.03,0.99,0.61,1.61,0.5,12.38,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.21,0.02,0.02,0.14,0.0,0.0,0.0,0.0,7.81</t>
   </si>
   <si>
     <t>ove,</t>
@@ -720,13 +720,13 @@
     <t>i think that is wong especialy if you live with the person.</t>
   </si>
   <si>
-    <t>343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0,165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0,143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0,523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+    <t>17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47,17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78</t>
+  </si>
+  <si>
+    <t>13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77,8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81,13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77</t>
   </si>
   <si>
     <t>ment</t>
@@ -735,19 +735,19 @@
     <t>! Murder Is a heavy offense &lt;br/&gt; But Remember, when you say "I DO", you're basically inviting the person &lt;br/&gt; You're marrying into the Family. So ask yourself... would YOU turn in FAMILY?? &lt;br/&gt; If so, join the police force. If not, kudos! (I would still divorce the crazy chick though!)</t>
   </si>
   <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0,341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56</t>
+  </si>
+  <si>
+    <t>11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43,11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14</t>
+  </si>
+  <si>
+    <t>12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0,11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
+  </si>
+  <si>
+    <t>11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29,24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94</t>
   </si>
   <si>
     <t>cri</t>
@@ -756,13 +756,13 @@
     <t>me then yes I would turn him in. If they know its him then its just a matter of time.</t>
   </si>
   <si>
-    <t>143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4</t>
-  </si>
-  <si>
-    <t>246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89,12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59</t>
+  </si>
+  <si>
+    <t>12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2,19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44</t>
+  </si>
+  <si>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75,71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92</t>
   </si>
   <si>
     <t>of</t>
@@ -771,19 +771,19 @@
     <t>and would not leave them for anything.</t>
   </si>
   <si>
-    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0</t>
+    <t>65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25,17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78</t>
+  </si>
+  <si>
+    <t>19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06,22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56,16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44</t>
+  </si>
+  <si>
+    <t>13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0,85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52</t>
   </si>
   <si>
     <t>tha</t>
@@ -792,28 +792,28 @@
     <t>t he would probably be sentenced to death or spend the rest of his life in prison.</t>
   </si>
   <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,292,0.5,12.38,0.0,0.05,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0,257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,29.0,5.03,0.99,0.61,1.61,0.5,12.38,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.21,0.02,0.02,0.14,0.0,0.0,0.0,0.0,7.81</t>
+  </si>
+  <si>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81,7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2,25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57</t>
+  </si>
+  <si>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78,10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29</t>
+  </si>
+  <si>
+    <t>71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
+  </si>
+  <si>
+    <t>13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
   </si>
   <si>
     <t>the</t>
@@ -822,13 +822,13 @@
     <t>person is. Hmmm that is a hard one. Well if I truly loved this person I would not turn them in because, I mean I made a promise to them that they could turn to me for help in thick and thin till death do us part. But there are divorces that happen all the time because for whatever reason, but I don't know this is a toughy.</t>
   </si>
   <si>
-    <t>212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
-  </si>
-  <si>
-    <t>276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2,448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0</t>
+    <t>22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
+  </si>
+  <si>
+    <t>18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86,11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29</t>
   </si>
   <si>
     <t>her,</t>
@@ -837,85 +837,85 @@
     <t>no matter what!</t>
   </si>
   <si>
-    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0,165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0,166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4</t>
-  </si>
-  <si>
-    <t>426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0,195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
-  </si>
-  <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0,276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2</t>
-  </si>
-  <si>
-    <t>229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
-  </si>
-  <si>
-    <t>246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0,276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2</t>
+    <t>22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0,11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29</t>
+  </si>
+  <si>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
+  </si>
+  <si>
+    <t>65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3,17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78</t>
+  </si>
+  <si>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76,12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59</t>
+  </si>
+  <si>
+    <t>85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06,46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
+  </si>
+  <si>
+    <t>85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52,10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89,23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81</t>
+  </si>
+  <si>
+    <t>15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44,16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
+  </si>
+  <si>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75,12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44</t>
+  </si>
+  <si>
+    <t>16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44,8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14</t>
+  </si>
+  <si>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36,18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86</t>
+  </si>
+  <si>
+    <t>46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
+  </si>
+  <si>
+    <t>12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47</t>
+  </si>
+  <si>
+    <t>12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0,25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57</t>
+  </si>
+  <si>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
+  </si>
+  <si>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81,18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86</t>
   </si>
   <si>
     <t>it w</t>
@@ -924,37 +924,37 @@
     <t>ould be fun.</t>
   </si>
   <si>
-    <t>366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0,257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4</t>
-  </si>
-  <si>
-    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4,523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+    <t>13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0,11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0,11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14</t>
+  </si>
+  <si>
+    <t>13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44,12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47,7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2,12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25,17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75</t>
+  </si>
+  <si>
+    <t>12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2,19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06</t>
+  </si>
+  <si>
+    <t>22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0,23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81</t>
+  </si>
+  <si>
+    <t>17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09,13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77</t>
   </si>
   <si>
     <t>erso</t>
@@ -963,22 +963,22 @@
     <t>n &lt;br/&gt; You're marrying into the Family. So ask yourself... would YOU turn in FAMILY?? &lt;br/&gt; If so, join the police force. If not, kudos! (I would still divorce the crazy chick though!)</t>
   </si>
   <si>
-    <t>343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0,215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0,215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
-  </si>
-  <si>
-    <t>448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0,247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4</t>
-  </si>
-  <si>
-    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0</t>
+    <t>17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47,11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14</t>
+  </si>
+  <si>
+    <t>16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44,11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29</t>
+  </si>
+  <si>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36,11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14</t>
+  </si>
+  <si>
+    <t>15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08,16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
+  </si>
+  <si>
+    <t>11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29,12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59</t>
+  </si>
+  <si>
+    <t>11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43,11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29</t>
   </si>
   <si>
     <t>supp</t>
@@ -987,13 +987,13 @@
     <t>ort her and be with her, no matter what!</t>
   </si>
   <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0,426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0</t>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
+  </si>
+  <si>
+    <t>22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56,11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14</t>
+  </si>
+  <si>
+    <t>13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77,85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52</t>
   </si>
   <si>
     <t>am n</t>
@@ -1002,13 +1002,13 @@
     <t>ot sure of my exact answer but I am sure that I couldn't look at him everyday and act like nothing happened, I believe that feeling are stronger than anything and I would not like the fact that he would probably be sentenced to death or spend the rest of his life in prison.</t>
   </si>
   <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78,85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47</t>
+  </si>
+  <si>
+    <t>13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0,13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77</t>
   </si>
   <si>
     <t>basi</t>
@@ -1017,16 +1017,16 @@
     <t>cally inviting the person &lt;br/&gt; You're marrying into the Family. So ask yourself... would YOU turn in FAMILY?? &lt;br/&gt; If so, join the police force. If not, kudos! (I would still divorce the crazy chick though!)</t>
   </si>
   <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0,334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75,11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14</t>
+  </si>
+  <si>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76,16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
   </si>
   <si>
     <t>always knowing that I didn't turn that murder in. If he truly loved me I wouldn't have killed someone.</t>
   </si>
   <si>
-    <t>448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
+    <t>11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
   </si>
   <si>
     <t>use,</t>
@@ -1035,10 +1035,10 @@
     <t>I mean I made a promise to them that they could turn to me for help in thick and thin till death do us part. But there are divorces that happen all the time because for whatever reason, but I don't know this is a toughy.</t>
   </si>
   <si>
-    <t>246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+    <t>12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2,85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77</t>
   </si>
   <si>
     <t>wou</t>
@@ -1047,10 +1047,10 @@
     <t>ld still divorce the crazy chick though!)</t>
   </si>
   <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4</t>
-  </si>
-  <si>
-    <t>523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0,229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78,12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59</t>
+  </si>
+  <si>
+    <t>13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77,46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
   </si>
   <si>
     <t>mple</t>
@@ -1059,13 +1059,13 @@
     <t>reason i wouldnt want to be involed with the crime, because i knew about it.</t>
   </si>
   <si>
-    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
-  </si>
-  <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43,17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75</t>
+  </si>
+  <si>
+    <t>12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
+  </si>
+  <si>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
   </si>
   <si>
     <t>act</t>
@@ -1074,43 +1074,43 @@
     <t>that i would think that i would be next to get killed.</t>
   </si>
   <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4</t>
-  </si>
-  <si>
-    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0,257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0,341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,243,0.0,9.63,0.0,0.0,0.67,0.0,0.02,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0,195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4,446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0</t>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59</t>
+  </si>
+  <si>
+    <t>65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3,7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3,24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94</t>
+  </si>
+  <si>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0,7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43,16.67,4.86,0.85,0.92,0.93,0.0,9.63,0.0,0.0,0.67,0,0,0.0,0.02,0.0,0.14,0.02,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,10.25</t>
+  </si>
+  <si>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08</t>
+  </si>
+  <si>
+    <t>18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89,10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76,10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09,23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81</t>
   </si>
   <si>
     <t>at m</t>
@@ -1119,10 +1119,10 @@
     <t>eans that I am part of that murder by not saying anything, well then so be it.</t>
   </si>
   <si>
-    <t>166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2</t>
-  </si>
-  <si>
-    <t>448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0,334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
+    <t>12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0,18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86</t>
+  </si>
+  <si>
+    <t>11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29,16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
   </si>
   <si>
     <t>I di</t>
@@ -1131,13 +1131,13 @@
     <t>dn't turn that murder in. If he truly loved me I wouldn't have killed someone.</t>
   </si>
   <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57,22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56</t>
+  </si>
+  <si>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
   </si>
   <si>
     <t>us</t>
@@ -1146,52 +1146,52 @@
     <t>part. But there are divorces that happen all the time because for whatever reason, but I don't know this is a toughy.</t>
   </si>
   <si>
-    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
-  </si>
-  <si>
-    <t>129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0,221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
-  </si>
-  <si>
-    <t>215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0,212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0,247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4</t>
-  </si>
-  <si>
-    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0,350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
-  </si>
-  <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
+    <t>12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25,11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43</t>
+  </si>
+  <si>
+    <t>11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43,17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47</t>
+  </si>
+  <si>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
+  </si>
+  <si>
+    <t>12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25,16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44</t>
+  </si>
+  <si>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
+  </si>
+  <si>
+    <t>11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14,46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
+  </si>
+  <si>
+    <t>24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76,22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56</t>
+  </si>
+  <si>
+    <t>11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43,16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44</t>
+  </si>
+  <si>
+    <t>65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3,12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59</t>
+  </si>
+  <si>
+    <t>65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3,71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92</t>
+  </si>
+  <si>
+    <t>22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
+  </si>
+  <si>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78,19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44</t>
+  </si>
+  <si>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57,22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0</t>
+  </si>
+  <si>
+    <t>12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
+  </si>
+  <si>
+    <t>15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
   </si>
   <si>
     <t>a to</t>
@@ -1200,28 +1200,28 @@
     <t>ughy.</t>
   </si>
   <si>
-    <t>143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
-  </si>
-  <si>
-    <t>366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,292,0.5,12.38,0.0,0.05,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0,239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0,268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
+    <t>8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89,71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92</t>
+  </si>
+  <si>
+    <t>18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
+  </si>
+  <si>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
+  </si>
+  <si>
+    <t>13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0,29.0,5.03,0.99,0.61,1.61,0.5,12.38,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.21,0.02,0.02,0.14,0.0,0.0,0.0,0.0,7.81</t>
+  </si>
+  <si>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78,17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75</t>
+  </si>
+  <si>
+    <t>85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52,15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08</t>
+  </si>
+  <si>
+    <t>16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44,23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81</t>
+  </si>
+  <si>
+    <t>11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29,25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57</t>
   </si>
   <si>
     <t>et t</t>
@@ -1230,13 +1230,13 @@
     <t>o the grave.</t>
   </si>
   <si>
-    <t>448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0,246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
+    <t>11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29,12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
   </si>
   <si>
     <t>. Bu</t>
@@ -1245,13 +1245,13 @@
     <t>t there are divorces that happen all the time because for whatever reason, but I don't know this is a toughy.</t>
   </si>
   <si>
-    <t>366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0,212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0,344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0,8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36,22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56</t>
+  </si>
+  <si>
+    <t>85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52,19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06</t>
   </si>
   <si>
     <t>t wa</t>
@@ -1260,40 +1260,40 @@
     <t>s for a cost. It would be hard for me to turn in the one I love.</t>
   </si>
   <si>
-    <t>143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,246,0.5,9.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0,221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,129,0.0,8.98,1.0,0.09,0.5,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,215,0.0,8.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4</t>
-  </si>
-  <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0,426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0</t>
+    <t>8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89,12.75,4.82,0.87,1.23,0.71,0.5,9.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.0,0.22,0.08,0.08,0.24,0.0,0.0,0.0,0.0,10.2</t>
+  </si>
+  <si>
+    <t>13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0,46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
+  </si>
+  <si>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36,16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44</t>
+  </si>
+  <si>
+    <t>22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0,12.0,5.38,0.41,0.61,0.67,0.0,8.98,1.0,0.09,0.5,0,0,0.0,0.04,0.0,0.21,0.13,0.13,0.04,0.04,0.13,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75,19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44</t>
+  </si>
+  <si>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57,11.5,4.67,0.78,1.23,0.64,0.0,8.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.2,0.07,0.07,0.15,0.0,0.0,0.0,0.0,12.14</t>
+  </si>
+  <si>
+    <t>11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43,19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44</t>
+  </si>
+  <si>
+    <t>19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06,12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92,19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44</t>
+  </si>
+  <si>
+    <t>12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0,12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59</t>
+  </si>
+  <si>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3,85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52</t>
   </si>
   <si>
     <t>deat</t>
@@ -1302,28 +1302,28 @@
     <t>h or spend the rest of his life in prison.</t>
   </si>
   <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.14,7.46,0.0,0.02,0.86,0.0,0.02,0.0,0.0,0.1,0.1,0.0,0.0,426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>228,1.0,11.5,0.0,0.02,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
-  </si>
-  <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08</t>
+  </si>
+  <si>
+    <t>7.29,5.04,0.87,2.14,0.41,0.14,7.46,0.0,0.02,0.86,0,0,0.0,0.02,0.0,0.14,0.08,0.29,0.08,0.08,0.12,0.0,0.0,0.0,0.0,3.36,85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89,71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92</t>
+  </si>
+  <si>
+    <t>19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06,15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08</t>
+  </si>
+  <si>
+    <t>17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
+  </si>
+  <si>
+    <t>22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0,12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>22.5,5.07,0.77,0.61,1.25,1.0,11.5,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.04,0.27,0.09,0.09,0.18,0.0,0.0,0.0,0.0,7.0,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
+  </si>
+  <si>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75,13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77</t>
   </si>
   <si>
     <t>er,</t>
@@ -1332,16 +1332,16 @@
     <t>when you say "I DO", you're basically inviting the person &lt;br/&gt; You're marrying into the Family. So ask yourself... would YOU turn in FAMILY?? &lt;br/&gt; If so, join the police force. If not, kudos! (I would still divorce the crazy chick though!)</t>
   </si>
   <si>
-    <t>337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4,344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>292,0.8,10.14,0.0,0.03,1.0,0.0,0.0,0.0,0.05,0.2,0.15,0.0,0.0,344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.0,10.57,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.0,0.0,350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0,334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
+    <t>34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09,19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06</t>
+  </si>
+  <si>
+    <t>11.6,5.03,0.99,1.53,0.64,0.8,10.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.07,0.05,0.33,0.03,0.03,0.19,0.0,0.0,0.0,0.0,11.43,19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06</t>
+  </si>
+  <si>
+    <t>24.0,4.74,1.23,0.92,1.33,0.0,10.57,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.18,0.07,0.07,0.19,0.0,0.0,0.0,0.0,4.94,71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92</t>
+  </si>
+  <si>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81,16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
   </si>
   <si>
     <t>tur</t>
@@ -1350,10 +1350,10 @@
     <t>n that murder in. If he truly loved me I wouldn't have killed someone.</t>
   </si>
   <si>
-    <t>229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
+    <t>46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1,8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
   </si>
   <si>
     <t>ed m</t>
@@ -1362,13 +1362,13 @@
     <t>urder than maybe I could forgive her and not turn her in.</t>
   </si>
   <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0,143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>446,0.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.45,0.3,0.3,0.0,0.0,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63</t>
+  </si>
+  <si>
+    <t>65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3,8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>23.5,4.74,1.6,1.23,1.31,0.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.03,0.21,0.11,0.11,0.13,0.0,0.0,0.0,0.0,7.81,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
   </si>
   <si>
     <t>ean</t>
@@ -1377,10 +1377,10 @@
     <t>I made a promise to them that they could turn to me for help in thick and thin till death do us part. But there are divorces that happen all the time because for whatever reason, but I don't know this is a toughy.</t>
   </si>
   <si>
-    <t>221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,165,0.5,10.65,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,523,0.43,11.12,0.0,0.04,1.57,0.0,0.05,0.0,0.35,0.4,0.4,0.09,0.0</t>
+    <t>16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44,17.0,4.85,0.58,0.61,0.94,0.5,10.65,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.21,0.06,0.06,0.24,0.0,0.0,0.0,0.0,11.78</t>
+  </si>
+  <si>
+    <t>12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0,13.57,5.51,1.62,2.14,0.75,0.43,11.12,0.0,0.04,1.57,1,0,0.0,0.05,0.0,0.23,0.08,0.18,0.03,0.03,0.06,0.0,0.0,0.0,0.0,4.77</t>
   </si>
   <si>
     <t>hick</t>
@@ -1389,13 +1389,13 @@
     <t>though!)</t>
   </si>
   <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>195,0.25,7.14,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2</t>
-  </si>
-  <si>
-    <t>397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0,448,0.0,12.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.25,0.0,0.0</t>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1</t>
+  </si>
+  <si>
+    <t>10.5,4.64,0.72,1.23,0.58,0.25,7.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.31,0.07,0.07,0.21,0.02,0.14,0.0,0.0,7.63,18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86</t>
+  </si>
+  <si>
+    <t>17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75,11.71,5.46,1.4,2.14,0.65,0.0,12.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.07,0.2,0.13,0.13,0.11,0.01,0.14,0.0,0.0,3.29</t>
   </si>
   <si>
     <t>es a</t>
@@ -1404,7 +1404,7 @@
     <t>nd not tell anyone. If that were to ever happen, which I strongly doubt, I would definitely support her and be with her, no matter what!</t>
   </si>
   <si>
-    <t>426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0,350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52,71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92</t>
   </si>
   <si>
     <t>woul</t>
@@ -1413,16 +1413,16 @@
     <t>d have a family to take care of and would not leave them for anything.</t>
   </si>
   <si>
-    <t>247,0.5,10.94,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.4,0.18,0.4,276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2</t>
-  </si>
-  <si>
-    <t>212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,334,0.5,10.87,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.18,0.0</t>
-  </si>
-  <si>
-    <t>229,2.0,11.19,0.0,0.11,3.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,397,0.2,8.32,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,1.0,11.42,0.0,0.03,8.0,0.0,0.03,0.0,0.2,0.25,0.25,0.0,0.0,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
+    <t>12.25,5.04,0.83,1.23,0.68,0.5,10.94,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.22,0.04,0.04,0.12,0.04,0.29,0.4,0.4,5.59,18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86</t>
+  </si>
+  <si>
+    <t>22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56,16.25,5.14,1.11,1.23,0.9,0.5,10.87,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.31,0.05,0.05,0.2,0.0,0.0,0.0,0.0,10.18</t>
+  </si>
+  <si>
+    <t>46.0,4.98,0.78,0.31,2.56,2.0,11.19,0.0,0.11,3.0,0,0,0.0,0.0,0.0,0.13,0.04,0.24,0.11,0.11,0.07,0.0,0.0,0.0,0.0,6.1,17.4,4.56,1.48,1.53,0.97,0.2,8.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.21,0.05,0.05,0.18,0.01,0.14,0.0,0.0,7.75</t>
+  </si>
+  <si>
+    <t>65.0,5.0,1.11,0.31,3.61,1.0,11.42,0.0,0.03,8.0,0,0,0.0,0.03,0.0,0.11,0.02,0.22,0.02,0.02,0.18,0.0,0.0,0.0,0.0,5.3,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
   </si>
   <si>
     <t>divo</t>
@@ -1431,40 +1431,40 @@
     <t>rces that happen all the time because for whatever reason, but I don't know this is a toughy.</t>
   </si>
   <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2</t>
-  </si>
-  <si>
-    <t>212,0.5,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,191,0.0,12.29,0.0,0.06,4.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>193,1.0,11.03,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4</t>
-  </si>
-  <si>
-    <t>276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2,426,2.0,12.9,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0,477,1.25,11.35,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.45,0.45,0.09,0.0</t>
-  </si>
-  <si>
-    <t>344,0.0,8.64,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>337,0.0,12.21,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.27,0.4,166,0.0,7.23,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,14.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0,221,0.67,9.05,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.0</t>
-  </si>
-  <si>
-    <t>239,0.67,12.54,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,366,0.67,8.44,0.0,0.01,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.33,12.16,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,276,0.0,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.09,0.2</t>
-  </si>
-  <si>
-    <t>343,0.25,10.48,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.5,0.45,0.0,0.0,350,4.0,12.35,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56</t>
+  </si>
+  <si>
+    <t>19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06,18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86</t>
+  </si>
+  <si>
+    <t>22.5,4.71,0.77,0.61,1.25,0.5,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.07,0.18,0.04,0.04,0.13,0.0,0.0,0.0,0.0,10.56,18.5,5.16,0.63,0.61,1.03,0.0,12.29,0.0,0.06,4.0,0,0,0.0,0.0,0.0,0.14,0.11,0.19,0.24,0.24,0.14,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>19.5,4.95,0.66,0.61,1.08,1.0,11.03,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.08,0.18,0.1,0.1,0.15,0.0,0.0,0.0,0.0,10.44,34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09</t>
+  </si>
+  <si>
+    <t>18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86,85.0,5.01,1.45,0.31,4.72,2.0,12.9,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.2,0.05,0.05,0.16,0.0,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47,24.25,4.92,1.65,1.23,1.35,1.25,11.35,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.05,0.2,0.04,0.04,0.13,0.0,0.0,0.0,0.0,5.76</t>
+  </si>
+  <si>
+    <t>19.0,4.53,1.29,1.23,1.06,0.0,8.64,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.07,0.07,0.24,0.0,0.0,0.0,0.0,8.06,71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92</t>
+  </si>
+  <si>
+    <t>34.0,4.96,1.16,0.61,1.89,0.0,12.21,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.03,0.28,0.04,0.04,0.24,0.04,0.29,0.4,0.4,8.09,12.33,4.49,0.63,0.92,0.69,0.0,7.23,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.0,0.3,0.03,0.03,0.3,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>25.0,5.36,0.85,0.61,1.39,0.0,14.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.06,0.26,0.02,0.02,0.1,0.02,0.0,0.0,0.0,2.57,16.0,4.6,0.82,0.92,0.89,0.67,9.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.04,0.23,0.02,0.02,0.13,0.0,0.0,0.0,0.0,2.44</t>
+  </si>
+  <si>
+    <t>15.0,5.31,0.77,0.92,0.83,0.67,12.54,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.22,0.04,0.04,0.2,0.0,0.0,0.0,0.0,10.08,13.33,4.58,1.36,1.84,0.74,0.67,8.44,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,9.0</t>
+  </si>
+  <si>
+    <t>8.33,5.72,0.43,0.92,0.46,0.33,12.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.0,0.0,0.12,0.0,0.0,0.0,0.0,10.89,18.33,5.02,0.94,0.92,1.02,0.0,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.24,0.07,0.07,0.24,0.0,0.0,0.2,0.2,3.86</t>
+  </si>
+  <si>
+    <t>17.5,4.9,1.19,1.23,0.97,0.25,10.48,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.26,0.0,0.0,0.19,0.0,0.0,0.0,0.0,7.47,71.0,4.93,1.21,0.31,3.95,4.0,12.35,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.08,0.07,0.2,0.06,0.06,0.17,0.0,0.0,0.0,0.0,5.92</t>
   </si>
 </sst>
 </file>
